--- a/informacoes_nfe.xlsx
+++ b/informacoes_nfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\NFE_Automation\NFE_Logika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{B697EDA9-C396-4A04-8EB5-85A5A5B6BC1F}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF5208-4485-4E2D-B253-82914B988BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="292">
   <si>
     <t>Arquivo</t>
   </si>
@@ -951,9 +951,12 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="2">
+  <cellXfs count="3">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="top"/>
+    </xf>
+    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1258,16 +1261,17 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G109"/>
+  <dimension ref="A1:G111"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A20" workbookViewId="0">
-      <selection activeCell="E16" sqref="E16"/>
+    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
+      <selection activeCell="G1" sqref="G1"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
     <col min="1" max="1" width="27.140625" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
@@ -1299,27 +1303,28 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>7</v>
+        <v>56</v>
       </c>
       <c r="B2" t="s">
-        <v>8</v>
+        <v>57</v>
       </c>
       <c r="C2" t="s">
-        <v>9</v>
+        <v>58</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>10</v>
+        <v>59</v>
       </c>
       <c r="F2" t="s">
-        <v>11</v>
-      </c>
+        <v>60</v>
+      </c>
+      <c r="G2" s="2"/>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>12</v>
+        <v>7</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1331,15 +1336,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>13</v>
+        <v>10</v>
       </c>
       <c r="F3" t="s">
-        <v>14</v>
+        <v>11</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>15</v>
+        <v>12</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1351,15 +1356,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>16</v>
+        <v>13</v>
       </c>
       <c r="F4" t="s">
-        <v>17</v>
+        <v>14</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>18</v>
+        <v>15</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1371,15 +1376,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>19</v>
+        <v>16</v>
       </c>
       <c r="F5" t="s">
-        <v>20</v>
+        <v>17</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>21</v>
+        <v>18</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1391,55 +1396,55 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>22</v>
+        <v>19</v>
       </c>
       <c r="F6" t="s">
-        <v>23</v>
+        <v>20</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>24</v>
+        <v>21</v>
       </c>
       <c r="B7" t="s">
-        <v>25</v>
+        <v>8</v>
       </c>
       <c r="C7" t="s">
-        <v>26</v>
+        <v>9</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>27</v>
+        <v>22</v>
       </c>
       <c r="F7" t="s">
-        <v>28</v>
+        <v>23</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>29</v>
+        <v>24</v>
       </c>
       <c r="B8" t="s">
-        <v>30</v>
+        <v>25</v>
       </c>
       <c r="C8" t="s">
-        <v>31</v>
+        <v>26</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>32</v>
+        <v>27</v>
       </c>
       <c r="F8" t="s">
-        <v>33</v>
+        <v>28</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>34</v>
+        <v>29</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1451,15 +1456,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>35</v>
+        <v>32</v>
       </c>
       <c r="F9" t="s">
-        <v>36</v>
+        <v>33</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>37</v>
+        <v>34</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1471,35 +1476,35 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>38</v>
+        <v>35</v>
       </c>
       <c r="F10" t="s">
-        <v>39</v>
+        <v>36</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>40</v>
+        <v>37</v>
       </c>
       <c r="B11" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C11" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F11" t="s">
-        <v>44</v>
+        <v>39</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>45</v>
+        <v>40</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1514,12 +1519,12 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>46</v>
+        <v>44</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>47</v>
+        <v>45</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -1534,18 +1539,18 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>48</v>
+        <v>46</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>49</v>
+        <v>47</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1554,18 +1559,18 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>51</v>
+        <v>48</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>52</v>
+        <v>49</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1574,12 +1579,12 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>53</v>
+        <v>51</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>54</v>
+        <v>52</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1594,58 +1599,55 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>55</v>
+        <v>53</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>56</v>
+        <v>54</v>
       </c>
       <c r="B17" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C17" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F17" t="s">
-        <v>60</v>
+        <v>55</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>61</v>
+        <v>56</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
-      <c r="C18" t="s">
-        <v>50</v>
-      </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F18" t="s">
-        <v>62</v>
+        <v>60</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>63</v>
+        <v>61</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>50</v>
+        <v>58</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1654,18 +1656,18 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>64</v>
+        <v>62</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>65</v>
+        <v>63</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1674,35 +1676,35 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>66</v>
+        <v>64</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>67</v>
+        <v>65</v>
       </c>
       <c r="B21" t="s">
-        <v>30</v>
+        <v>57</v>
       </c>
       <c r="C21" t="s">
-        <v>68</v>
+        <v>50</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F21" t="s">
-        <v>70</v>
+        <v>66</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>71</v>
+        <v>67</v>
       </c>
       <c r="B22" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -1711,35 +1713,35 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F22" t="s">
-        <v>73</v>
+        <v>70</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>74</v>
+        <v>71</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>42</v>
+        <v>68</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>32</v>
+        <v>72</v>
       </c>
       <c r="F23" t="s">
-        <v>75</v>
+        <v>73</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>76</v>
+        <v>74</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1751,15 +1753,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F24" t="s">
-        <v>77</v>
+        <v>75</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>78</v>
+        <v>76</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -1771,18 +1773,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>38</v>
+        <v>69</v>
       </c>
       <c r="F25" t="s">
-        <v>79</v>
+        <v>77</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>80</v>
+        <v>78</v>
       </c>
       <c r="B26" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1791,15 +1793,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>82</v>
+        <v>38</v>
       </c>
       <c r="F26" t="s">
-        <v>83</v>
+        <v>79</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>84</v>
+        <v>80</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
@@ -1811,15 +1813,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>85</v>
+        <v>82</v>
       </c>
       <c r="F27" t="s">
-        <v>86</v>
+        <v>83</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>87</v>
+        <v>84</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
@@ -1831,115 +1833,115 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>88</v>
+        <v>85</v>
       </c>
       <c r="F28" t="s">
-        <v>89</v>
+        <v>86</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>90</v>
+        <v>87</v>
       </c>
       <c r="B29" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C29" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>91</v>
+        <v>88</v>
       </c>
       <c r="F29" t="s">
-        <v>92</v>
+        <v>89</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>93</v>
+        <v>90</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>27</v>
+        <v>91</v>
       </c>
       <c r="F30" t="s">
-        <v>94</v>
+        <v>92</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>95</v>
+        <v>93</v>
       </c>
       <c r="B31" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C31" t="s">
-        <v>96</v>
+        <v>31</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>72</v>
+        <v>27</v>
       </c>
       <c r="F31" t="s">
-        <v>97</v>
+        <v>94</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>98</v>
+        <v>95</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>100</v>
+        <v>72</v>
       </c>
       <c r="F32" t="s">
-        <v>101</v>
+        <v>97</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>102</v>
+        <v>98</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>103</v>
+        <v>96</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F33" t="s">
-        <v>105</v>
+        <v>101</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>106</v>
+        <v>102</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1951,55 +1953,55 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>59</v>
+        <v>104</v>
       </c>
       <c r="F34" t="s">
-        <v>107</v>
+        <v>105</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>108</v>
+        <v>106</v>
       </c>
       <c r="B35" t="s">
-        <v>81</v>
+        <v>8</v>
       </c>
       <c r="C35" t="s">
-        <v>31</v>
+        <v>103</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>109</v>
+        <v>59</v>
       </c>
       <c r="F35" t="s">
-        <v>110</v>
+        <v>107</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>111</v>
+        <v>108</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F36" t="s">
-        <v>113</v>
+        <v>110</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>114</v>
+        <v>111</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2014,12 +2016,12 @@
         <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>115</v>
+        <v>113</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>116</v>
+        <v>114</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
@@ -2034,12 +2036,12 @@
         <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>117</v>
+        <v>115</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>118</v>
+        <v>116</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -2051,15 +2053,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>32</v>
+        <v>112</v>
       </c>
       <c r="F39" t="s">
-        <v>119</v>
+        <v>117</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>120</v>
+        <v>118</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -2071,15 +2073,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>38</v>
+        <v>32</v>
       </c>
       <c r="F40" t="s">
-        <v>121</v>
+        <v>119</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>122</v>
+        <v>120</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -2094,52 +2096,52 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>123</v>
+        <v>121</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>124</v>
+        <v>122</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>125</v>
+        <v>38</v>
       </c>
       <c r="F42" t="s">
-        <v>126</v>
+        <v>123</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>127</v>
+        <v>124</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>109</v>
+        <v>125</v>
       </c>
       <c r="F43" t="s">
-        <v>128</v>
+        <v>126</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>129</v>
+        <v>127</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -2151,15 +2153,15 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F44" t="s">
-        <v>130</v>
+        <v>128</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>131</v>
+        <v>129</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
@@ -2171,15 +2173,15 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>132</v>
+        <v>112</v>
       </c>
       <c r="F45" t="s">
-        <v>133</v>
+        <v>130</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>134</v>
+        <v>131</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
@@ -2191,15 +2193,15 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>32</v>
+        <v>132</v>
       </c>
       <c r="F46" t="s">
-        <v>135</v>
+        <v>133</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>136</v>
+        <v>134</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
@@ -2211,55 +2213,55 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>69</v>
+        <v>32</v>
       </c>
       <c r="F47" t="s">
-        <v>137</v>
+        <v>135</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>138</v>
+        <v>136</v>
       </c>
       <c r="B48" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C48" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>112</v>
+        <v>69</v>
       </c>
       <c r="F48" t="s">
-        <v>140</v>
+        <v>137</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>141</v>
+        <v>138</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>100</v>
+        <v>112</v>
       </c>
       <c r="F49" t="s">
-        <v>142</v>
+        <v>140</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>143</v>
+        <v>141</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
@@ -2271,15 +2273,15 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>82</v>
+        <v>100</v>
       </c>
       <c r="F50" t="s">
-        <v>144</v>
+        <v>142</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>145</v>
+        <v>143</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
@@ -2291,15 +2293,15 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>32</v>
+        <v>82</v>
       </c>
       <c r="F51" t="s">
-        <v>146</v>
+        <v>144</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>147</v>
+        <v>145</v>
       </c>
       <c r="B52" t="s">
         <v>139</v>
@@ -2311,15 +2313,15 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>104</v>
+        <v>32</v>
       </c>
       <c r="F52" t="s">
-        <v>148</v>
+        <v>146</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>149</v>
+        <v>147</v>
       </c>
       <c r="B53" t="s">
         <v>139</v>
@@ -2331,15 +2333,15 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F53" t="s">
-        <v>150</v>
+        <v>148</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>151</v>
+        <v>149</v>
       </c>
       <c r="B54" t="s">
         <v>139</v>
@@ -2351,15 +2353,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F54" t="s">
-        <v>152</v>
+        <v>150</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>153</v>
+        <v>151</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -2371,15 +2373,15 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>27</v>
+        <v>59</v>
       </c>
       <c r="F55" t="s">
-        <v>154</v>
+        <v>152</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>155</v>
+        <v>153</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
@@ -2391,15 +2393,15 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>156</v>
+        <v>27</v>
       </c>
       <c r="F56" t="s">
-        <v>157</v>
+        <v>154</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>158</v>
+        <v>155</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -2411,78 +2413,78 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>159</v>
+        <v>156</v>
       </c>
       <c r="F57" t="s">
-        <v>160</v>
+        <v>157</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>161</v>
+        <v>158</v>
       </c>
       <c r="B58" t="s">
-        <v>162</v>
+        <v>139</v>
       </c>
       <c r="C58" t="s">
-        <v>163</v>
+        <v>31</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>43</v>
+        <v>159</v>
       </c>
       <c r="F58" t="s">
-        <v>164</v>
+        <v>160</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>165</v>
+        <v>161</v>
       </c>
       <c r="B59" t="s">
-        <v>81</v>
+        <v>162</v>
       </c>
       <c r="C59" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>69</v>
+        <v>43</v>
       </c>
       <c r="F59" t="s">
-        <v>166</v>
+        <v>164</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>167</v>
+        <v>165</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>100</v>
+        <v>69</v>
       </c>
       <c r="F60" t="s">
-        <v>168</v>
+        <v>166</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>169</v>
+        <v>167</v>
       </c>
       <c r="B61" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>
@@ -2491,18 +2493,18 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>125</v>
+        <v>100</v>
       </c>
       <c r="F61" t="s">
-        <v>170</v>
+        <v>168</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>171</v>
+        <v>169</v>
       </c>
       <c r="B62" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
@@ -2511,61 +2513,61 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>172</v>
+        <v>125</v>
       </c>
       <c r="F62" t="s">
-        <v>173</v>
+        <v>170</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>174</v>
+        <v>171</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>100</v>
+        <v>172</v>
       </c>
       <c r="F63" t="s">
-        <v>175</v>
+        <v>173</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>176</v>
+        <v>174</v>
       </c>
       <c r="B64" t="s">
-        <v>57</v>
+        <v>41</v>
       </c>
       <c r="C64" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>43</v>
+        <v>100</v>
       </c>
       <c r="F64" t="s">
-        <v>177</v>
+        <v>175</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>178</v>
+        <v>176</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>99</v>
+        <v>58</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2574,72 +2576,72 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>179</v>
+        <v>177</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>180</v>
+        <v>178</v>
       </c>
       <c r="B66" t="s">
-        <v>181</v>
+        <v>57</v>
       </c>
       <c r="C66" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D66">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E66" t="s">
+        <v>43</v>
       </c>
       <c r="F66" t="s">
-        <v>182</v>
-      </c>
-      <c r="G66" t="s">
-        <v>183</v>
+        <v>179</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>184</v>
+        <v>180</v>
       </c>
       <c r="B67" t="s">
-        <v>30</v>
+        <v>181</v>
       </c>
       <c r="C67" t="s">
-        <v>185</v>
+        <v>99</v>
       </c>
       <c r="D67">
-        <v>1</v>
-      </c>
-      <c r="E67" t="s">
-        <v>112</v>
+        <v>2</v>
       </c>
       <c r="F67" t="s">
-        <v>186</v>
+        <v>182</v>
+      </c>
+      <c r="G67" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>187</v>
+        <v>184</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F68" t="s">
-        <v>188</v>
+        <v>186</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>189</v>
+        <v>187</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
@@ -2651,35 +2653,35 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="F69" t="s">
-        <v>191</v>
+        <v>188</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>192</v>
+        <v>189</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>50</v>
+        <v>163</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F70" t="s">
-        <v>193</v>
+        <v>191</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>194</v>
+        <v>192</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
@@ -2691,41 +2693,41 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="F71" t="s">
-        <v>196</v>
+        <v>193</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>197</v>
+        <v>194</v>
       </c>
       <c r="B72" t="s">
-        <v>41</v>
+        <v>30</v>
       </c>
       <c r="C72" t="s">
-        <v>198</v>
+        <v>50</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F72" t="s">
-        <v>199</v>
+        <v>196</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>200</v>
+        <v>197</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>198</v>
+        <v>185</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2734,18 +2736,18 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>201</v>
+        <v>199</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>202</v>
+        <v>200</v>
       </c>
       <c r="B74" t="s">
-        <v>81</v>
+        <v>41</v>
       </c>
       <c r="C74" t="s">
-        <v>58</v>
+        <v>198</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2754,78 +2756,78 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>203</v>
+        <v>201</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>204</v>
+        <v>202</v>
       </c>
       <c r="B75" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="C75" t="s">
-        <v>206</v>
+        <v>198</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>125</v>
+        <v>43</v>
       </c>
       <c r="F75" t="s">
-        <v>207</v>
+        <v>203</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>208</v>
+        <v>204</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>209</v>
+        <v>58</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>72</v>
+        <v>125</v>
       </c>
       <c r="F76" t="s">
-        <v>210</v>
+        <v>207</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>211</v>
+        <v>208</v>
       </c>
       <c r="B77" t="s">
         <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>185</v>
+        <v>206</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>112</v>
+        <v>72</v>
       </c>
       <c r="F77" t="s">
-        <v>212</v>
+        <v>210</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>213</v>
+        <v>211</v>
       </c>
       <c r="B78" t="s">
         <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>214</v>
+        <v>209</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2834,78 +2836,78 @@
         <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>215</v>
+        <v>212</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>216</v>
+        <v>213</v>
       </c>
       <c r="B79" t="s">
         <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>163</v>
+        <v>185</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>43</v>
+        <v>112</v>
       </c>
       <c r="F79" t="s">
-        <v>217</v>
+        <v>215</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>218</v>
+        <v>216</v>
       </c>
       <c r="B80" t="s">
         <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>219</v>
+        <v>214</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>104</v>
+        <v>43</v>
       </c>
       <c r="F80" t="s">
-        <v>220</v>
+        <v>217</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>221</v>
+        <v>218</v>
       </c>
       <c r="B81" t="s">
         <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>222</v>
+        <v>163</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>69</v>
+        <v>104</v>
       </c>
       <c r="F81" t="s">
-        <v>223</v>
+        <v>220</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>224</v>
+        <v>221</v>
       </c>
       <c r="B82" t="s">
         <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>185</v>
+        <v>219</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2914,58 +2916,58 @@
         <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>225</v>
+        <v>223</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>226</v>
+        <v>224</v>
       </c>
       <c r="B83" t="s">
         <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>209</v>
+        <v>222</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>59</v>
+        <v>69</v>
       </c>
       <c r="F83" t="s">
-        <v>227</v>
+        <v>225</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>228</v>
+        <v>226</v>
       </c>
       <c r="B84" t="s">
         <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>229</v>
+        <v>185</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F84" t="s">
-        <v>230</v>
+        <v>227</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>231</v>
+        <v>228</v>
       </c>
       <c r="B85" t="s">
         <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>232</v>
+        <v>209</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2974,92 +2976,92 @@
         <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>233</v>
+        <v>230</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>234</v>
+        <v>231</v>
       </c>
       <c r="B86" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C86" t="s">
-        <v>58</v>
+        <v>229</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>109</v>
+        <v>43</v>
       </c>
       <c r="F86" t="s">
-        <v>235</v>
+        <v>233</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>236</v>
+        <v>234</v>
       </c>
       <c r="B87" t="s">
-        <v>139</v>
+        <v>81</v>
       </c>
       <c r="C87" t="s">
-        <v>42</v>
+        <v>232</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>100</v>
+        <v>109</v>
       </c>
       <c r="F87" t="s">
-        <v>237</v>
+        <v>235</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>238</v>
+        <v>236</v>
       </c>
       <c r="B88" t="s">
-        <v>239</v>
+        <v>139</v>
       </c>
       <c r="C88" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>240</v>
+        <v>100</v>
       </c>
       <c r="F88" t="s">
-        <v>241</v>
+        <v>237</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>242</v>
+        <v>238</v>
       </c>
       <c r="B89" t="s">
         <v>239</v>
       </c>
       <c r="C89" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>109</v>
+        <v>240</v>
       </c>
       <c r="F89" t="s">
-        <v>243</v>
+        <v>241</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>244</v>
+        <v>242</v>
       </c>
       <c r="B90" t="s">
         <v>239</v>
@@ -3071,15 +3073,15 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>245</v>
+        <v>109</v>
       </c>
       <c r="F90" t="s">
-        <v>246</v>
+        <v>243</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>247</v>
+        <v>244</v>
       </c>
       <c r="B91" t="s">
         <v>239</v>
@@ -3091,15 +3093,15 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>132</v>
+        <v>245</v>
       </c>
       <c r="F91" t="s">
-        <v>248</v>
+        <v>246</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>249</v>
+        <v>247</v>
       </c>
       <c r="B92" t="s">
         <v>239</v>
@@ -3111,15 +3113,15 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>91</v>
+        <v>132</v>
       </c>
       <c r="F92" t="s">
-        <v>250</v>
+        <v>248</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>251</v>
+        <v>249</v>
       </c>
       <c r="B93" t="s">
         <v>239</v>
@@ -3131,15 +3133,15 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>104</v>
+        <v>91</v>
       </c>
       <c r="F93" t="s">
-        <v>252</v>
+        <v>250</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>253</v>
+        <v>251</v>
       </c>
       <c r="B94" t="s">
         <v>239</v>
@@ -3151,15 +3153,15 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>190</v>
+        <v>104</v>
       </c>
       <c r="F94" t="s">
-        <v>254</v>
+        <v>252</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>255</v>
+        <v>253</v>
       </c>
       <c r="B95" t="s">
         <v>239</v>
@@ -3171,175 +3173,175 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>27</v>
+        <v>190</v>
       </c>
       <c r="F95" t="s">
-        <v>256</v>
+        <v>254</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>257</v>
+        <v>255</v>
       </c>
       <c r="B96" t="s">
-        <v>258</v>
+        <v>239</v>
       </c>
       <c r="C96" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>109</v>
+        <v>27</v>
       </c>
       <c r="F96" t="s">
-        <v>259</v>
+        <v>256</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>260</v>
+        <v>257</v>
       </c>
       <c r="B97" t="s">
         <v>258</v>
       </c>
       <c r="C97" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>112</v>
+        <v>109</v>
       </c>
       <c r="F97" t="s">
-        <v>261</v>
+        <v>259</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>262</v>
+        <v>260</v>
       </c>
       <c r="B98" t="s">
         <v>258</v>
       </c>
       <c r="C98" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>38</v>
+        <v>112</v>
       </c>
       <c r="F98" t="s">
-        <v>263</v>
+        <v>261</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>264</v>
+        <v>262</v>
       </c>
       <c r="B99" t="s">
-        <v>265</v>
+        <v>258</v>
       </c>
       <c r="C99" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F99" t="s">
-        <v>266</v>
+        <v>263</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>267</v>
+        <v>264</v>
       </c>
       <c r="B100" t="s">
         <v>265</v>
       </c>
       <c r="C100" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F100" t="s">
-        <v>268</v>
+        <v>266</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>269</v>
+        <v>267</v>
       </c>
       <c r="B101" t="s">
-        <v>81</v>
+        <v>265</v>
       </c>
       <c r="C101" t="s">
-        <v>270</v>
+        <v>163</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>271</v>
+        <v>38</v>
       </c>
       <c r="F101" t="s">
-        <v>272</v>
+        <v>268</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>273</v>
+        <v>269</v>
       </c>
       <c r="B102" t="s">
-        <v>30</v>
+        <v>81</v>
       </c>
       <c r="C102" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>245</v>
+        <v>271</v>
       </c>
       <c r="F102" t="s">
-        <v>274</v>
+        <v>272</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>275</v>
+        <v>273</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>42</v>
+        <v>270</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>100</v>
+        <v>245</v>
       </c>
       <c r="F103" t="s">
-        <v>276</v>
+        <v>274</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>277</v>
+        <v>275</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
@@ -3351,15 +3353,15 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>104</v>
+        <v>100</v>
       </c>
       <c r="F104" t="s">
-        <v>278</v>
+        <v>276</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>279</v>
+        <v>277</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
@@ -3374,52 +3376,52 @@
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>280</v>
+        <v>278</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>281</v>
+        <v>279</v>
       </c>
       <c r="B106" t="s">
-        <v>8</v>
+        <v>30</v>
       </c>
       <c r="C106" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>109</v>
+        <v>104</v>
       </c>
       <c r="F106" t="s">
-        <v>283</v>
+        <v>280</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>284</v>
+        <v>281</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>72</v>
+        <v>109</v>
       </c>
       <c r="F107" t="s">
-        <v>285</v>
+        <v>283</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>286</v>
+        <v>284</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
@@ -3431,30 +3433,55 @@
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F108" t="s">
-        <v>287</v>
+        <v>285</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
+        <v>286</v>
+      </c>
+      <c r="B109" t="s">
+        <v>8</v>
+      </c>
+      <c r="C109" t="s">
+        <v>282</v>
+      </c>
+      <c r="D109">
+        <v>1</v>
+      </c>
+      <c r="E109" t="s">
+        <v>69</v>
+      </c>
+      <c r="F109" t="s">
+        <v>287</v>
+      </c>
+    </row>
+    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="A110" t="s">
         <v>288</v>
       </c>
-      <c r="B109" t="s">
+      <c r="B110" t="s">
         <v>289</v>
       </c>
-      <c r="C109" t="s">
+      <c r="C110" t="s">
+        <v>282</v>
+      </c>
+      <c r="D110">
+        <v>1</v>
+      </c>
+      <c r="E110" t="s">
+        <v>290</v>
+      </c>
+      <c r="F110" t="s">
+        <v>291</v>
+      </c>
+    </row>
+    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
+      <c r="C111" t="s">
         <v>42</v>
-      </c>
-      <c r="D109">
-        <v>1</v>
-      </c>
-      <c r="E109" t="s">
-        <v>290</v>
-      </c>
-      <c r="F109" t="s">
-        <v>291</v>
       </c>
     </row>
   </sheetData>

--- a/informacoes_nfe.xlsx
+++ b/informacoes_nfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\NFE_Automation\NFE_Logika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{56EF5208-4485-4E2D-B253-82914B988BA7}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086497D-ABA1-457F-A7F8-F17381008E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -20,7 +20,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="552" uniqueCount="292">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="547" uniqueCount="293">
   <si>
     <t>Arquivo</t>
   </si>
@@ -52,7 +52,7 @@
     <t>['6102']</t>
   </si>
   <si>
-    <t>2024-10-20</t>
+    <t>20/10/2024</t>
   </si>
   <si>
     <t>1688192</t>
@@ -61,7 +61,7 @@
     <t>35241006853754000170550000016977401654601893.xml</t>
   </si>
   <si>
-    <t>2024-10-27</t>
+    <t>27/10/2024</t>
   </si>
   <si>
     <t>1697740</t>
@@ -70,7 +70,7 @@
     <t>35241006853754000170550000017070201898911971.xml</t>
   </si>
   <si>
-    <t>2024-11-03</t>
+    <t>03/11/2024</t>
   </si>
   <si>
     <t>1707020</t>
@@ -79,7 +79,7 @@
     <t>35241006853754000170550000017117581243512073.xml</t>
   </si>
   <si>
-    <t>2024-11-05</t>
+    <t>05/11/2024</t>
   </si>
   <si>
     <t>1711758</t>
@@ -88,7 +88,7 @@
     <t>35241006853754000170550000017167121090660598.xml</t>
   </si>
   <si>
-    <t>2024-11-10</t>
+    <t>10/11/2024</t>
   </si>
   <si>
     <t>1716712</t>
@@ -103,7 +103,7 @@
     <t>['6101']</t>
   </si>
   <si>
-    <t>2024-11-13</t>
+    <t>13/11/2024</t>
   </si>
   <si>
     <t>5203623</t>
@@ -118,7 +118,7 @@
     <t>['5101']</t>
   </si>
   <si>
-    <t>2024-10-30</t>
+    <t>30/10/2024</t>
   </si>
   <si>
     <t>331240</t>
@@ -127,7 +127,7 @@
     <t>41241000077597000172550010003314601001894530.xml</t>
   </si>
   <si>
-    <t>2024-11-02</t>
+    <t>02/11/2024</t>
   </si>
   <si>
     <t>331460</t>
@@ -136,7 +136,7 @@
     <t>41241000077597000172550010003322111001953536.xml</t>
   </si>
   <si>
-    <t>2024-11-14</t>
+    <t>14/11/2024</t>
   </si>
   <si>
     <t>332211</t>
@@ -196,10 +196,10 @@
     <t>S.S.R.CAUS ACOUGUE ME</t>
   </si>
   <si>
-    <t>['5102', '5405']</t>
-  </si>
-  <si>
-    <t>2024-11-08</t>
+    <t>['5405', '5102']</t>
+  </si>
+  <si>
+    <t>08/11/2024</t>
   </si>
   <si>
     <t>1749768</t>
@@ -229,7 +229,7 @@
     <t>['5405']</t>
   </si>
   <si>
-    <t>2024-11-06</t>
+    <t>06/11/2024</t>
   </si>
   <si>
     <t>111589</t>
@@ -238,7 +238,7 @@
     <t>41241002914460031463550010000463121876123305.xml</t>
   </si>
   <si>
-    <t>2024-10-18</t>
+    <t>18/10/2024</t>
   </si>
   <si>
     <t>46312</t>
@@ -268,7 +268,7 @@
     <t>S S R CAUS ACOUGUE ME</t>
   </si>
   <si>
-    <t>2024-10-29</t>
+    <t>29/10/2024</t>
   </si>
   <si>
     <t>128875</t>
@@ -277,7 +277,7 @@
     <t>41241002916265038566550010001297861639668416.xml</t>
   </si>
   <si>
-    <t>2024-11-04</t>
+    <t>04/11/2024</t>
   </si>
   <si>
     <t>129786</t>
@@ -286,7 +286,7 @@
     <t>41241002916265038566550010001323251483317373.xml</t>
   </si>
   <si>
-    <t>2024-11-18</t>
+    <t>18/11/2024</t>
   </si>
   <si>
     <t>132325</t>
@@ -295,7 +295,7 @@
     <t>41241003990431001960550050000214081000211968.xml</t>
   </si>
   <si>
-    <t>2024-10-31</t>
+    <t>31/10/2024</t>
   </si>
   <si>
     <t>21408</t>
@@ -322,7 +322,7 @@
     <t>['5104']</t>
   </si>
   <si>
-    <t>2024-10-25</t>
+    <t>25/10/2024</t>
   </si>
   <si>
     <t>46528</t>
@@ -331,10 +331,10 @@
     <t>41241007536183000103550010000467731644708387.xml</t>
   </si>
   <si>
-    <t>['5104', '5405']</t>
-  </si>
-  <si>
-    <t>2024-11-01</t>
+    <t>['5405', '5104']</t>
+  </si>
+  <si>
+    <t>01/11/2024</t>
   </si>
   <si>
     <t>46773</t>
@@ -349,7 +349,7 @@
     <t>41241007615913000242550020001547801002429476.xml</t>
   </si>
   <si>
-    <t>2024-10-17</t>
+    <t>17/10/2024</t>
   </si>
   <si>
     <t>154780</t>
@@ -358,7 +358,7 @@
     <t>41241007615913000242550020001557021003712064.xml</t>
   </si>
   <si>
-    <t>2024-10-23</t>
+    <t>23/10/2024</t>
   </si>
   <si>
     <t>155702</t>
@@ -397,7 +397,7 @@
     <t>41241008544325000147550010000727361492906084.xml</t>
   </si>
   <si>
-    <t>2024-10-16</t>
+    <t>16/10/2024</t>
   </si>
   <si>
     <t>72736</t>
@@ -418,7 +418,7 @@
     <t>41241008544325000147550010000728361117869312.xml</t>
   </si>
   <si>
-    <t>2024-10-24</t>
+    <t>24/10/2024</t>
   </si>
   <si>
     <t>72836</t>
@@ -490,7 +490,7 @@
     <t>41241010318646000175550010000992591233702815.xml</t>
   </si>
   <si>
-    <t>2024-11-15</t>
+    <t>15/11/2024</t>
   </si>
   <si>
     <t>99259</t>
@@ -499,7 +499,7 @@
     <t>41241010318646000175550010000993901241790340.xml</t>
   </si>
   <si>
-    <t>2024-11-20</t>
+    <t>20/11/2024</t>
   </si>
   <si>
     <t>99390</t>
@@ -538,7 +538,7 @@
     <t>41241013958820000132550030000939511286485816.xml</t>
   </si>
   <si>
-    <t>2024-10-04</t>
+    <t>04/10/2024</t>
   </si>
   <si>
     <t>93951</t>
@@ -571,7 +571,7 @@
     <t>19171</t>
   </si>
   <si>
-    <t>['2024-10-23', '2024-10-30']</t>
+    <t>['23/10/2024', '30/10/2024']</t>
   </si>
   <si>
     <t>41241021813583000140550010000127911000127922.xml</t>
@@ -592,7 +592,7 @@
     <t>41241021813583000140550010000132011000132020.xml</t>
   </si>
   <si>
-    <t>2024-11-07</t>
+    <t>07/11/2024</t>
   </si>
   <si>
     <t>13201</t>
@@ -607,7 +607,7 @@
     <t>41241021813583000140550010000134861000134870.xml</t>
   </si>
   <si>
-    <t>2024-11-21</t>
+    <t>21/11/2024</t>
   </si>
   <si>
     <t>13486</t>
@@ -640,7 +640,7 @@
     <t>S S R CAUS ACOUGUE  ME</t>
   </si>
   <si>
-    <t>['5403', '5102', '5401']</t>
+    <t>['5401', '5102', '5403']</t>
   </si>
   <si>
     <t>3521302</t>
@@ -649,7 +649,7 @@
     <t>41241061186888013252550050035270171029901539.xml</t>
   </si>
   <si>
-    <t>['5403', '5102', '5405', '5401']</t>
+    <t>['5401', '5102', '5403', '5405']</t>
   </si>
   <si>
     <t>3527017</t>
@@ -664,7 +664,7 @@
     <t>41241061186888013252550050035374451066744727.xml</t>
   </si>
   <si>
-    <t>['5403', '5405', '5401']</t>
+    <t>['5405', '5401', '5403']</t>
   </si>
   <si>
     <t>3537445</t>
@@ -679,7 +679,7 @@
     <t>41241061186888013252550050035541481096526824.xml</t>
   </si>
   <si>
-    <t>['5102', '5405', '5401']</t>
+    <t>['5401', '5102', '5405']</t>
   </si>
   <si>
     <t>3554148</t>
@@ -688,7 +688,7 @@
     <t>41241061186888013252550050035636231092247413.xml</t>
   </si>
   <si>
-    <t>['5403', '5401']</t>
+    <t>['5401', '5403']</t>
   </si>
   <si>
     <t>3563623</t>
@@ -703,13 +703,16 @@
     <t>41241061186888013252550050035684161035875548.xml</t>
   </si>
   <si>
+    <t>['5405', '5102', '5403', '5401']</t>
+  </si>
+  <si>
     <t>3568416</t>
   </si>
   <si>
     <t>41241061186888013252550070002722711000432999.xml</t>
   </si>
   <si>
-    <t>['1410', '1411', '1202']</t>
+    <t>['1411', '1410', '1202']</t>
   </si>
   <si>
     <t>272271</t>
@@ -742,7 +745,7 @@
     <t>S.S.R. CAUS AÇOUGUE - ME</t>
   </si>
   <si>
-    <t>2024-10-15</t>
+    <t>15/10/2024</t>
   </si>
   <si>
     <t>2070042</t>
@@ -757,7 +760,7 @@
     <t>41241075729038000107550010020728891826270495.xml</t>
   </si>
   <si>
-    <t>2024-10-22</t>
+    <t>22/10/2024</t>
   </si>
   <si>
     <t>2072889</t>
@@ -832,10 +835,10 @@
     <t>41241081231078000119550010000242271518634434.xml</t>
   </si>
   <si>
-    <t>['5101', '5401']</t>
-  </si>
-  <si>
-    <t>2024-10-21</t>
+    <t>['5401', '5101']</t>
+  </si>
+  <si>
+    <t>21/10/2024</t>
   </si>
   <si>
     <t>24227</t>
@@ -892,7 +895,7 @@
     <t>330986 S S R CAUS ACOUGUE  CASA DE CARNES FRIGO</t>
   </si>
   <si>
-    <t>2024-10-28</t>
+    <t>28/10/2024</t>
   </si>
   <si>
     <t>2401829</t>
@@ -951,12 +954,9 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="3">
+  <cellXfs count="2">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="top"/>
-    </xf>
-    <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
       <alignment horizontal="center" vertical="top"/>
     </xf>
   </cellXfs>
@@ -1261,21 +1261,21 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:G111"/>
+  <dimension ref="A1:G109"/>
   <sheetViews>
-    <sheetView tabSelected="1" zoomScale="85" zoomScaleNormal="85" workbookViewId="0">
-      <selection activeCell="G1" sqref="G1"/>
+    <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
+      <selection activeCell="G66" sqref="G66"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
   <cols>
-    <col min="1" max="1" width="27.140625" customWidth="1"/>
+    <col min="1" max="1" width="50.140625" bestFit="1" customWidth="1"/>
     <col min="2" max="2" width="48.5703125" bestFit="1" customWidth="1"/>
     <col min="3" max="3" width="25.28515625" bestFit="1" customWidth="1"/>
     <col min="4" max="4" width="19" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="19.28515625" bestFit="1" customWidth="1"/>
     <col min="6" max="6" width="15.7109375" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="24.42578125" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="25" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
     <row r="1" spans="1:7" x14ac:dyDescent="0.25">
@@ -1303,28 +1303,27 @@
     </row>
     <row r="2" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A2" t="s">
-        <v>56</v>
+        <v>7</v>
       </c>
       <c r="B2" t="s">
-        <v>57</v>
+        <v>8</v>
       </c>
       <c r="C2" t="s">
-        <v>58</v>
+        <v>9</v>
       </c>
       <c r="D2">
         <v>1</v>
       </c>
       <c r="E2" t="s">
-        <v>59</v>
+        <v>10</v>
       </c>
       <c r="F2" t="s">
-        <v>60</v>
-      </c>
-      <c r="G2" s="2"/>
+        <v>11</v>
+      </c>
     </row>
     <row r="3" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A3" t="s">
-        <v>7</v>
+        <v>12</v>
       </c>
       <c r="B3" t="s">
         <v>8</v>
@@ -1336,15 +1335,15 @@
         <v>1</v>
       </c>
       <c r="E3" t="s">
-        <v>10</v>
+        <v>13</v>
       </c>
       <c r="F3" t="s">
-        <v>11</v>
+        <v>14</v>
       </c>
     </row>
     <row r="4" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A4" t="s">
-        <v>12</v>
+        <v>15</v>
       </c>
       <c r="B4" t="s">
         <v>8</v>
@@ -1356,15 +1355,15 @@
         <v>1</v>
       </c>
       <c r="E4" t="s">
-        <v>13</v>
+        <v>16</v>
       </c>
       <c r="F4" t="s">
-        <v>14</v>
+        <v>17</v>
       </c>
     </row>
     <row r="5" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A5" t="s">
-        <v>15</v>
+        <v>18</v>
       </c>
       <c r="B5" t="s">
         <v>8</v>
@@ -1376,15 +1375,15 @@
         <v>1</v>
       </c>
       <c r="E5" t="s">
-        <v>16</v>
+        <v>19</v>
       </c>
       <c r="F5" t="s">
-        <v>17</v>
+        <v>20</v>
       </c>
     </row>
     <row r="6" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A6" t="s">
-        <v>18</v>
+        <v>21</v>
       </c>
       <c r="B6" t="s">
         <v>8</v>
@@ -1396,55 +1395,55 @@
         <v>1</v>
       </c>
       <c r="E6" t="s">
-        <v>19</v>
+        <v>22</v>
       </c>
       <c r="F6" t="s">
-        <v>20</v>
+        <v>23</v>
       </c>
     </row>
     <row r="7" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A7" t="s">
-        <v>21</v>
+        <v>24</v>
       </c>
       <c r="B7" t="s">
-        <v>8</v>
+        <v>25</v>
       </c>
       <c r="C7" t="s">
-        <v>9</v>
+        <v>26</v>
       </c>
       <c r="D7">
         <v>1</v>
       </c>
       <c r="E7" t="s">
-        <v>22</v>
+        <v>27</v>
       </c>
       <c r="F7" t="s">
-        <v>23</v>
+        <v>28</v>
       </c>
     </row>
     <row r="8" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A8" t="s">
-        <v>24</v>
+        <v>29</v>
       </c>
       <c r="B8" t="s">
-        <v>25</v>
+        <v>30</v>
       </c>
       <c r="C8" t="s">
-        <v>26</v>
+        <v>31</v>
       </c>
       <c r="D8">
         <v>1</v>
       </c>
       <c r="E8" t="s">
-        <v>27</v>
+        <v>32</v>
       </c>
       <c r="F8" t="s">
-        <v>28</v>
+        <v>33</v>
       </c>
     </row>
     <row r="9" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A9" t="s">
-        <v>29</v>
+        <v>34</v>
       </c>
       <c r="B9" t="s">
         <v>30</v>
@@ -1456,15 +1455,15 @@
         <v>1</v>
       </c>
       <c r="E9" t="s">
-        <v>32</v>
+        <v>35</v>
       </c>
       <c r="F9" t="s">
-        <v>33</v>
+        <v>36</v>
       </c>
     </row>
     <row r="10" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A10" t="s">
-        <v>34</v>
+        <v>37</v>
       </c>
       <c r="B10" t="s">
         <v>30</v>
@@ -1476,35 +1475,35 @@
         <v>1</v>
       </c>
       <c r="E10" t="s">
-        <v>35</v>
+        <v>38</v>
       </c>
       <c r="F10" t="s">
-        <v>36</v>
+        <v>39</v>
       </c>
     </row>
     <row r="11" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A11" t="s">
-        <v>37</v>
+        <v>40</v>
       </c>
       <c r="B11" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C11" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D11">
         <v>1</v>
       </c>
       <c r="E11" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F11" t="s">
-        <v>39</v>
+        <v>44</v>
       </c>
     </row>
     <row r="12" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A12" t="s">
-        <v>40</v>
+        <v>45</v>
       </c>
       <c r="B12" t="s">
         <v>41</v>
@@ -1519,12 +1518,12 @@
         <v>43</v>
       </c>
       <c r="F12" t="s">
-        <v>44</v>
+        <v>46</v>
       </c>
     </row>
     <row r="13" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A13" t="s">
-        <v>45</v>
+        <v>47</v>
       </c>
       <c r="B13" t="s">
         <v>41</v>
@@ -1539,18 +1538,18 @@
         <v>43</v>
       </c>
       <c r="F13" t="s">
-        <v>46</v>
+        <v>48</v>
       </c>
     </row>
     <row r="14" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A14" t="s">
-        <v>47</v>
+        <v>49</v>
       </c>
       <c r="B14" t="s">
         <v>41</v>
       </c>
       <c r="C14" t="s">
-        <v>42</v>
+        <v>50</v>
       </c>
       <c r="D14">
         <v>1</v>
@@ -1559,18 +1558,18 @@
         <v>43</v>
       </c>
       <c r="F14" t="s">
-        <v>48</v>
+        <v>51</v>
       </c>
     </row>
     <row r="15" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A15" t="s">
-        <v>49</v>
+        <v>52</v>
       </c>
       <c r="B15" t="s">
         <v>41</v>
       </c>
       <c r="C15" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D15">
         <v>1</v>
@@ -1579,12 +1578,12 @@
         <v>43</v>
       </c>
       <c r="F15" t="s">
-        <v>51</v>
+        <v>53</v>
       </c>
     </row>
     <row r="16" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A16" t="s">
-        <v>52</v>
+        <v>54</v>
       </c>
       <c r="B16" t="s">
         <v>41</v>
@@ -1599,55 +1598,58 @@
         <v>43</v>
       </c>
       <c r="F16" t="s">
-        <v>53</v>
+        <v>55</v>
       </c>
     </row>
     <row r="17" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A17" t="s">
-        <v>54</v>
+        <v>56</v>
       </c>
       <c r="B17" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C17" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D17">
         <v>1</v>
       </c>
       <c r="E17" t="s">
-        <v>43</v>
+        <v>59</v>
       </c>
       <c r="F17" t="s">
-        <v>55</v>
+        <v>60</v>
       </c>
     </row>
     <row r="18" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A18" t="s">
-        <v>56</v>
+        <v>61</v>
       </c>
       <c r="B18" t="s">
         <v>57</v>
       </c>
+      <c r="C18" t="s">
+        <v>50</v>
+      </c>
       <c r="D18">
         <v>1</v>
       </c>
       <c r="E18" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F18" t="s">
-        <v>60</v>
+        <v>62</v>
       </c>
     </row>
     <row r="19" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A19" t="s">
-        <v>61</v>
+        <v>63</v>
       </c>
       <c r="B19" t="s">
         <v>57</v>
       </c>
       <c r="C19" t="s">
-        <v>58</v>
+        <v>50</v>
       </c>
       <c r="D19">
         <v>1</v>
@@ -1656,18 +1658,18 @@
         <v>43</v>
       </c>
       <c r="F19" t="s">
-        <v>62</v>
+        <v>64</v>
       </c>
     </row>
     <row r="20" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A20" t="s">
-        <v>63</v>
+        <v>65</v>
       </c>
       <c r="B20" t="s">
         <v>57</v>
       </c>
       <c r="C20" t="s">
-        <v>50</v>
+        <v>42</v>
       </c>
       <c r="D20">
         <v>1</v>
@@ -1676,35 +1678,35 @@
         <v>43</v>
       </c>
       <c r="F20" t="s">
-        <v>64</v>
+        <v>66</v>
       </c>
     </row>
     <row r="21" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A21" t="s">
-        <v>65</v>
+        <v>67</v>
       </c>
       <c r="B21" t="s">
-        <v>57</v>
+        <v>30</v>
       </c>
       <c r="C21" t="s">
-        <v>50</v>
+        <v>68</v>
       </c>
       <c r="D21">
         <v>1</v>
       </c>
       <c r="E21" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F21" t="s">
-        <v>66</v>
+        <v>70</v>
       </c>
     </row>
     <row r="22" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A22" t="s">
-        <v>67</v>
+        <v>71</v>
       </c>
       <c r="B22" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C22" t="s">
         <v>42</v>
@@ -1713,35 +1715,35 @@
         <v>1</v>
       </c>
       <c r="E22" t="s">
-        <v>69</v>
+        <v>72</v>
       </c>
       <c r="F22" t="s">
-        <v>70</v>
+        <v>73</v>
       </c>
     </row>
     <row r="23" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A23" t="s">
-        <v>71</v>
+        <v>74</v>
       </c>
       <c r="B23" t="s">
         <v>41</v>
       </c>
       <c r="C23" t="s">
-        <v>68</v>
+        <v>42</v>
       </c>
       <c r="D23">
         <v>1</v>
       </c>
       <c r="E23" t="s">
-        <v>72</v>
+        <v>32</v>
       </c>
       <c r="F23" t="s">
-        <v>73</v>
+        <v>75</v>
       </c>
     </row>
     <row r="24" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A24" t="s">
-        <v>74</v>
+        <v>76</v>
       </c>
       <c r="B24" t="s">
         <v>41</v>
@@ -1753,15 +1755,15 @@
         <v>1</v>
       </c>
       <c r="E24" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F24" t="s">
-        <v>75</v>
+        <v>77</v>
       </c>
     </row>
     <row r="25" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A25" t="s">
-        <v>76</v>
+        <v>78</v>
       </c>
       <c r="B25" t="s">
         <v>41</v>
@@ -1773,18 +1775,18 @@
         <v>1</v>
       </c>
       <c r="E25" t="s">
-        <v>69</v>
+        <v>38</v>
       </c>
       <c r="F25" t="s">
-        <v>77</v>
+        <v>79</v>
       </c>
     </row>
     <row r="26" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A26" t="s">
-        <v>78</v>
+        <v>80</v>
       </c>
       <c r="B26" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C26" t="s">
         <v>42</v>
@@ -1793,15 +1795,15 @@
         <v>1</v>
       </c>
       <c r="E26" t="s">
-        <v>38</v>
+        <v>82</v>
       </c>
       <c r="F26" t="s">
-        <v>79</v>
+        <v>83</v>
       </c>
     </row>
     <row r="27" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A27" t="s">
-        <v>80</v>
+        <v>84</v>
       </c>
       <c r="B27" t="s">
         <v>81</v>
@@ -1813,15 +1815,15 @@
         <v>1</v>
       </c>
       <c r="E27" t="s">
-        <v>82</v>
+        <v>85</v>
       </c>
       <c r="F27" t="s">
-        <v>83</v>
+        <v>86</v>
       </c>
     </row>
     <row r="28" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A28" t="s">
-        <v>84</v>
+        <v>87</v>
       </c>
       <c r="B28" t="s">
         <v>81</v>
@@ -1833,115 +1835,115 @@
         <v>1</v>
       </c>
       <c r="E28" t="s">
-        <v>85</v>
+        <v>88</v>
       </c>
       <c r="F28" t="s">
-        <v>86</v>
+        <v>89</v>
       </c>
     </row>
     <row r="29" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A29" t="s">
-        <v>87</v>
+        <v>90</v>
       </c>
       <c r="B29" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C29" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D29">
         <v>1</v>
       </c>
       <c r="E29" t="s">
-        <v>88</v>
+        <v>91</v>
       </c>
       <c r="F29" t="s">
-        <v>89</v>
+        <v>92</v>
       </c>
     </row>
     <row r="30" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A30" t="s">
-        <v>90</v>
+        <v>93</v>
       </c>
       <c r="B30" t="s">
         <v>30</v>
       </c>
       <c r="C30" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D30">
         <v>1</v>
       </c>
       <c r="E30" t="s">
-        <v>91</v>
+        <v>27</v>
       </c>
       <c r="F30" t="s">
-        <v>92</v>
+        <v>94</v>
       </c>
     </row>
     <row r="31" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A31" t="s">
-        <v>93</v>
+        <v>95</v>
       </c>
       <c r="B31" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C31" t="s">
-        <v>31</v>
+        <v>96</v>
       </c>
       <c r="D31">
         <v>1</v>
       </c>
       <c r="E31" t="s">
-        <v>27</v>
+        <v>72</v>
       </c>
       <c r="F31" t="s">
-        <v>94</v>
+        <v>97</v>
       </c>
     </row>
     <row r="32" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A32" t="s">
-        <v>95</v>
+        <v>98</v>
       </c>
       <c r="B32" t="s">
         <v>8</v>
       </c>
       <c r="C32" t="s">
-        <v>31</v>
+        <v>99</v>
       </c>
       <c r="D32">
         <v>1</v>
       </c>
       <c r="E32" t="s">
-        <v>72</v>
+        <v>100</v>
       </c>
       <c r="F32" t="s">
-        <v>97</v>
+        <v>101</v>
       </c>
     </row>
     <row r="33" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A33" t="s">
-        <v>98</v>
+        <v>102</v>
       </c>
       <c r="B33" t="s">
         <v>8</v>
       </c>
       <c r="C33" t="s">
-        <v>96</v>
+        <v>103</v>
       </c>
       <c r="D33">
         <v>1</v>
       </c>
       <c r="E33" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F33" t="s">
-        <v>101</v>
+        <v>105</v>
       </c>
     </row>
     <row r="34" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A34" t="s">
-        <v>102</v>
+        <v>106</v>
       </c>
       <c r="B34" t="s">
         <v>8</v>
@@ -1953,55 +1955,55 @@
         <v>1</v>
       </c>
       <c r="E34" t="s">
-        <v>104</v>
+        <v>59</v>
       </c>
       <c r="F34" t="s">
-        <v>105</v>
+        <v>107</v>
       </c>
     </row>
     <row r="35" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A35" t="s">
-        <v>106</v>
+        <v>108</v>
       </c>
       <c r="B35" t="s">
-        <v>8</v>
+        <v>81</v>
       </c>
       <c r="C35" t="s">
-        <v>103</v>
+        <v>31</v>
       </c>
       <c r="D35">
         <v>1</v>
       </c>
       <c r="E35" t="s">
-        <v>59</v>
+        <v>109</v>
       </c>
       <c r="F35" t="s">
-        <v>107</v>
+        <v>110</v>
       </c>
     </row>
     <row r="36" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A36" t="s">
-        <v>108</v>
+        <v>111</v>
       </c>
       <c r="B36" t="s">
         <v>81</v>
       </c>
       <c r="C36" t="s">
-        <v>99</v>
+        <v>31</v>
       </c>
       <c r="D36">
         <v>1</v>
       </c>
       <c r="E36" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F36" t="s">
-        <v>110</v>
+        <v>113</v>
       </c>
     </row>
     <row r="37" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A37" t="s">
-        <v>111</v>
+        <v>114</v>
       </c>
       <c r="B37" t="s">
         <v>81</v>
@@ -2016,12 +2018,12 @@
         <v>112</v>
       </c>
       <c r="F37" t="s">
-        <v>113</v>
+        <v>115</v>
       </c>
     </row>
     <row r="38" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A38" t="s">
-        <v>114</v>
+        <v>116</v>
       </c>
       <c r="B38" t="s">
         <v>81</v>
@@ -2036,12 +2038,12 @@
         <v>112</v>
       </c>
       <c r="F38" t="s">
-        <v>115</v>
+        <v>117</v>
       </c>
     </row>
     <row r="39" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A39" t="s">
-        <v>116</v>
+        <v>118</v>
       </c>
       <c r="B39" t="s">
         <v>81</v>
@@ -2053,15 +2055,15 @@
         <v>1</v>
       </c>
       <c r="E39" t="s">
-        <v>112</v>
+        <v>32</v>
       </c>
       <c r="F39" t="s">
-        <v>117</v>
+        <v>119</v>
       </c>
     </row>
     <row r="40" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A40" t="s">
-        <v>118</v>
+        <v>120</v>
       </c>
       <c r="B40" t="s">
         <v>81</v>
@@ -2073,15 +2075,15 @@
         <v>1</v>
       </c>
       <c r="E40" t="s">
-        <v>32</v>
+        <v>38</v>
       </c>
       <c r="F40" t="s">
-        <v>119</v>
+        <v>121</v>
       </c>
     </row>
     <row r="41" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A41" t="s">
-        <v>120</v>
+        <v>122</v>
       </c>
       <c r="B41" t="s">
         <v>81</v>
@@ -2096,52 +2098,52 @@
         <v>38</v>
       </c>
       <c r="F41" t="s">
-        <v>121</v>
+        <v>123</v>
       </c>
     </row>
     <row r="42" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A42" t="s">
-        <v>122</v>
+        <v>124</v>
       </c>
       <c r="B42" t="s">
         <v>81</v>
       </c>
       <c r="C42" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D42">
         <v>1</v>
       </c>
       <c r="E42" t="s">
-        <v>38</v>
+        <v>125</v>
       </c>
       <c r="F42" t="s">
-        <v>123</v>
+        <v>126</v>
       </c>
     </row>
     <row r="43" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A43" t="s">
-        <v>124</v>
+        <v>127</v>
       </c>
       <c r="B43" t="s">
         <v>81</v>
       </c>
       <c r="C43" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D43">
         <v>1</v>
       </c>
       <c r="E43" t="s">
-        <v>125</v>
+        <v>109</v>
       </c>
       <c r="F43" t="s">
-        <v>126</v>
+        <v>128</v>
       </c>
     </row>
     <row r="44" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A44" t="s">
-        <v>127</v>
+        <v>129</v>
       </c>
       <c r="B44" t="s">
         <v>81</v>
@@ -2153,15 +2155,15 @@
         <v>1</v>
       </c>
       <c r="E44" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F44" t="s">
-        <v>128</v>
+        <v>130</v>
       </c>
     </row>
     <row r="45" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A45" t="s">
-        <v>129</v>
+        <v>131</v>
       </c>
       <c r="B45" t="s">
         <v>81</v>
@@ -2173,15 +2175,15 @@
         <v>1</v>
       </c>
       <c r="E45" t="s">
-        <v>112</v>
+        <v>132</v>
       </c>
       <c r="F45" t="s">
-        <v>130</v>
+        <v>133</v>
       </c>
     </row>
     <row r="46" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A46" t="s">
-        <v>131</v>
+        <v>134</v>
       </c>
       <c r="B46" t="s">
         <v>81</v>
@@ -2193,15 +2195,15 @@
         <v>1</v>
       </c>
       <c r="E46" t="s">
-        <v>132</v>
+        <v>32</v>
       </c>
       <c r="F46" t="s">
-        <v>133</v>
+        <v>135</v>
       </c>
     </row>
     <row r="47" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A47" t="s">
-        <v>134</v>
+        <v>136</v>
       </c>
       <c r="B47" t="s">
         <v>81</v>
@@ -2213,55 +2215,55 @@
         <v>1</v>
       </c>
       <c r="E47" t="s">
-        <v>32</v>
+        <v>69</v>
       </c>
       <c r="F47" t="s">
-        <v>135</v>
+        <v>137</v>
       </c>
     </row>
     <row r="48" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A48" t="s">
-        <v>136</v>
+        <v>138</v>
       </c>
       <c r="B48" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C48" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D48">
         <v>1</v>
       </c>
       <c r="E48" t="s">
-        <v>69</v>
+        <v>112</v>
       </c>
       <c r="F48" t="s">
-        <v>137</v>
+        <v>140</v>
       </c>
     </row>
     <row r="49" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A49" t="s">
-        <v>138</v>
+        <v>141</v>
       </c>
       <c r="B49" t="s">
         <v>139</v>
       </c>
       <c r="C49" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D49">
         <v>1</v>
       </c>
       <c r="E49" t="s">
-        <v>112</v>
+        <v>100</v>
       </c>
       <c r="F49" t="s">
-        <v>140</v>
+        <v>142</v>
       </c>
     </row>
     <row r="50" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A50" t="s">
-        <v>141</v>
+        <v>143</v>
       </c>
       <c r="B50" t="s">
         <v>139</v>
@@ -2273,15 +2275,15 @@
         <v>1</v>
       </c>
       <c r="E50" t="s">
-        <v>100</v>
+        <v>82</v>
       </c>
       <c r="F50" t="s">
-        <v>142</v>
+        <v>144</v>
       </c>
     </row>
     <row r="51" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A51" t="s">
-        <v>143</v>
+        <v>145</v>
       </c>
       <c r="B51" t="s">
         <v>139</v>
@@ -2293,15 +2295,15 @@
         <v>1</v>
       </c>
       <c r="E51" t="s">
-        <v>82</v>
+        <v>32</v>
       </c>
       <c r="F51" t="s">
-        <v>144</v>
+        <v>146</v>
       </c>
     </row>
     <row r="52" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A52" t="s">
-        <v>145</v>
+        <v>147</v>
       </c>
       <c r="B52" t="s">
         <v>139</v>
@@ -2313,15 +2315,15 @@
         <v>1</v>
       </c>
       <c r="E52" t="s">
-        <v>32</v>
+        <v>104</v>
       </c>
       <c r="F52" t="s">
-        <v>146</v>
+        <v>148</v>
       </c>
     </row>
     <row r="53" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A53" t="s">
-        <v>147</v>
+        <v>149</v>
       </c>
       <c r="B53" t="s">
         <v>139</v>
@@ -2333,15 +2335,15 @@
         <v>1</v>
       </c>
       <c r="E53" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F53" t="s">
-        <v>148</v>
+        <v>150</v>
       </c>
     </row>
     <row r="54" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A54" t="s">
-        <v>149</v>
+        <v>151</v>
       </c>
       <c r="B54" t="s">
         <v>139</v>
@@ -2353,15 +2355,15 @@
         <v>1</v>
       </c>
       <c r="E54" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F54" t="s">
-        <v>150</v>
+        <v>152</v>
       </c>
     </row>
     <row r="55" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A55" t="s">
-        <v>151</v>
+        <v>153</v>
       </c>
       <c r="B55" t="s">
         <v>139</v>
@@ -2373,15 +2375,15 @@
         <v>1</v>
       </c>
       <c r="E55" t="s">
-        <v>59</v>
+        <v>27</v>
       </c>
       <c r="F55" t="s">
-        <v>152</v>
+        <v>154</v>
       </c>
     </row>
     <row r="56" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A56" t="s">
-        <v>153</v>
+        <v>155</v>
       </c>
       <c r="B56" t="s">
         <v>139</v>
@@ -2393,15 +2395,15 @@
         <v>1</v>
       </c>
       <c r="E56" t="s">
-        <v>27</v>
+        <v>156</v>
       </c>
       <c r="F56" t="s">
-        <v>154</v>
+        <v>157</v>
       </c>
     </row>
     <row r="57" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A57" t="s">
-        <v>155</v>
+        <v>158</v>
       </c>
       <c r="B57" t="s">
         <v>139</v>
@@ -2413,78 +2415,78 @@
         <v>1</v>
       </c>
       <c r="E57" t="s">
-        <v>156</v>
+        <v>159</v>
       </c>
       <c r="F57" t="s">
-        <v>157</v>
+        <v>160</v>
       </c>
     </row>
     <row r="58" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A58" t="s">
-        <v>158</v>
+        <v>161</v>
       </c>
       <c r="B58" t="s">
-        <v>139</v>
+        <v>162</v>
       </c>
       <c r="C58" t="s">
-        <v>31</v>
+        <v>163</v>
       </c>
       <c r="D58">
         <v>1</v>
       </c>
       <c r="E58" t="s">
-        <v>159</v>
+        <v>43</v>
       </c>
       <c r="F58" t="s">
-        <v>160</v>
+        <v>164</v>
       </c>
     </row>
     <row r="59" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A59" t="s">
-        <v>161</v>
+        <v>165</v>
       </c>
       <c r="B59" t="s">
-        <v>162</v>
+        <v>81</v>
       </c>
       <c r="C59" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D59">
         <v>1</v>
       </c>
       <c r="E59" t="s">
-        <v>43</v>
+        <v>69</v>
       </c>
       <c r="F59" t="s">
-        <v>164</v>
+        <v>166</v>
       </c>
     </row>
     <row r="60" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A60" t="s">
-        <v>165</v>
+        <v>167</v>
       </c>
       <c r="B60" t="s">
         <v>81</v>
       </c>
       <c r="C60" t="s">
-        <v>163</v>
+        <v>42</v>
       </c>
       <c r="D60">
         <v>1</v>
       </c>
       <c r="E60" t="s">
-        <v>69</v>
+        <v>100</v>
       </c>
       <c r="F60" t="s">
-        <v>166</v>
+        <v>168</v>
       </c>
     </row>
     <row r="61" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A61" t="s">
-        <v>167</v>
+        <v>169</v>
       </c>
       <c r="B61" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C61" t="s">
         <v>42</v>
@@ -2493,18 +2495,18 @@
         <v>1</v>
       </c>
       <c r="E61" t="s">
-        <v>100</v>
+        <v>125</v>
       </c>
       <c r="F61" t="s">
-        <v>168</v>
+        <v>170</v>
       </c>
     </row>
     <row r="62" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A62" t="s">
-        <v>169</v>
+        <v>171</v>
       </c>
       <c r="B62" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C62" t="s">
         <v>42</v>
@@ -2513,61 +2515,61 @@
         <v>1</v>
       </c>
       <c r="E62" t="s">
-        <v>125</v>
+        <v>172</v>
       </c>
       <c r="F62" t="s">
-        <v>170</v>
+        <v>173</v>
       </c>
     </row>
     <row r="63" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A63" t="s">
-        <v>171</v>
+        <v>174</v>
       </c>
       <c r="B63" t="s">
         <v>41</v>
       </c>
       <c r="C63" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D63">
         <v>1</v>
       </c>
       <c r="E63" t="s">
-        <v>172</v>
+        <v>100</v>
       </c>
       <c r="F63" t="s">
-        <v>173</v>
+        <v>175</v>
       </c>
     </row>
     <row r="64" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A64" t="s">
-        <v>174</v>
+        <v>176</v>
       </c>
       <c r="B64" t="s">
-        <v>41</v>
+        <v>57</v>
       </c>
       <c r="C64" t="s">
-        <v>42</v>
+        <v>99</v>
       </c>
       <c r="D64">
         <v>1</v>
       </c>
       <c r="E64" t="s">
-        <v>100</v>
+        <v>43</v>
       </c>
       <c r="F64" t="s">
-        <v>175</v>
+        <v>177</v>
       </c>
     </row>
     <row r="65" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A65" t="s">
-        <v>176</v>
+        <v>178</v>
       </c>
       <c r="B65" t="s">
         <v>57</v>
       </c>
       <c r="C65" t="s">
-        <v>58</v>
+        <v>99</v>
       </c>
       <c r="D65">
         <v>1</v>
@@ -2576,72 +2578,72 @@
         <v>43</v>
       </c>
       <c r="F65" t="s">
-        <v>177</v>
+        <v>179</v>
       </c>
     </row>
     <row r="66" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A66" t="s">
-        <v>178</v>
+        <v>180</v>
       </c>
       <c r="B66" t="s">
-        <v>57</v>
+        <v>181</v>
       </c>
       <c r="C66" t="s">
-        <v>99</v>
+        <v>42</v>
       </c>
       <c r="D66">
-        <v>1</v>
-      </c>
-      <c r="E66" t="s">
-        <v>43</v>
+        <v>2</v>
       </c>
       <c r="F66" t="s">
-        <v>179</v>
+        <v>182</v>
+      </c>
+      <c r="G66" t="s">
+        <v>183</v>
       </c>
     </row>
     <row r="67" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A67" t="s">
-        <v>180</v>
+        <v>184</v>
       </c>
       <c r="B67" t="s">
-        <v>181</v>
+        <v>30</v>
       </c>
       <c r="C67" t="s">
-        <v>99</v>
+        <v>185</v>
       </c>
       <c r="D67">
-        <v>2</v>
+        <v>1</v>
+      </c>
+      <c r="E67" t="s">
+        <v>112</v>
       </c>
       <c r="F67" t="s">
-        <v>182</v>
-      </c>
-      <c r="G67" t="s">
-        <v>183</v>
+        <v>186</v>
       </c>
     </row>
     <row r="68" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A68" t="s">
-        <v>184</v>
+        <v>187</v>
       </c>
       <c r="B68" t="s">
         <v>30</v>
       </c>
       <c r="C68" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D68">
         <v>1</v>
       </c>
       <c r="E68" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F68" t="s">
-        <v>186</v>
+        <v>188</v>
       </c>
     </row>
     <row r="69" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A69" t="s">
-        <v>187</v>
+        <v>189</v>
       </c>
       <c r="B69" t="s">
         <v>30</v>
@@ -2653,35 +2655,35 @@
         <v>1</v>
       </c>
       <c r="E69" t="s">
-        <v>43</v>
+        <v>190</v>
       </c>
       <c r="F69" t="s">
-        <v>188</v>
+        <v>191</v>
       </c>
     </row>
     <row r="70" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A70" t="s">
-        <v>189</v>
+        <v>192</v>
       </c>
       <c r="B70" t="s">
         <v>30</v>
       </c>
       <c r="C70" t="s">
-        <v>163</v>
+        <v>50</v>
       </c>
       <c r="D70">
         <v>1</v>
       </c>
       <c r="E70" t="s">
-        <v>190</v>
+        <v>43</v>
       </c>
       <c r="F70" t="s">
-        <v>191</v>
+        <v>193</v>
       </c>
     </row>
     <row r="71" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A71" t="s">
-        <v>192</v>
+        <v>194</v>
       </c>
       <c r="B71" t="s">
         <v>30</v>
@@ -2693,41 +2695,41 @@
         <v>1</v>
       </c>
       <c r="E71" t="s">
-        <v>43</v>
+        <v>195</v>
       </c>
       <c r="F71" t="s">
-        <v>193</v>
+        <v>196</v>
       </c>
     </row>
     <row r="72" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A72" t="s">
-        <v>194</v>
+        <v>197</v>
       </c>
       <c r="B72" t="s">
-        <v>30</v>
+        <v>41</v>
       </c>
       <c r="C72" t="s">
-        <v>50</v>
+        <v>198</v>
       </c>
       <c r="D72">
         <v>1</v>
       </c>
       <c r="E72" t="s">
-        <v>195</v>
+        <v>43</v>
       </c>
       <c r="F72" t="s">
-        <v>196</v>
+        <v>199</v>
       </c>
     </row>
     <row r="73" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A73" t="s">
-        <v>197</v>
+        <v>200</v>
       </c>
       <c r="B73" t="s">
         <v>41</v>
       </c>
       <c r="C73" t="s">
-        <v>185</v>
+        <v>198</v>
       </c>
       <c r="D73">
         <v>1</v>
@@ -2736,18 +2738,18 @@
         <v>43</v>
       </c>
       <c r="F73" t="s">
-        <v>199</v>
+        <v>201</v>
       </c>
     </row>
     <row r="74" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A74" t="s">
-        <v>200</v>
+        <v>202</v>
       </c>
       <c r="B74" t="s">
-        <v>41</v>
+        <v>81</v>
       </c>
       <c r="C74" t="s">
-        <v>198</v>
+        <v>58</v>
       </c>
       <c r="D74">
         <v>1</v>
@@ -2756,78 +2758,78 @@
         <v>43</v>
       </c>
       <c r="F74" t="s">
-        <v>201</v>
+        <v>203</v>
       </c>
     </row>
     <row r="75" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A75" t="s">
-        <v>202</v>
+        <v>204</v>
       </c>
       <c r="B75" t="s">
-        <v>81</v>
+        <v>205</v>
       </c>
       <c r="C75" t="s">
-        <v>198</v>
+        <v>206</v>
       </c>
       <c r="D75">
         <v>1</v>
       </c>
       <c r="E75" t="s">
-        <v>43</v>
+        <v>125</v>
       </c>
       <c r="F75" t="s">
-        <v>203</v>
+        <v>207</v>
       </c>
     </row>
     <row r="76" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A76" t="s">
-        <v>204</v>
+        <v>208</v>
       </c>
       <c r="B76" t="s">
         <v>205</v>
       </c>
       <c r="C76" t="s">
-        <v>58</v>
+        <v>209</v>
       </c>
       <c r="D76">
         <v>1</v>
       </c>
       <c r="E76" t="s">
-        <v>125</v>
+        <v>72</v>
       </c>
       <c r="F76" t="s">
-        <v>207</v>
+        <v>210</v>
       </c>
     </row>
     <row r="77" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A77" t="s">
-        <v>208</v>
+        <v>211</v>
       </c>
       <c r="B77" t="s">
         <v>205</v>
       </c>
       <c r="C77" t="s">
-        <v>206</v>
+        <v>185</v>
       </c>
       <c r="D77">
         <v>1</v>
       </c>
       <c r="E77" t="s">
-        <v>72</v>
+        <v>112</v>
       </c>
       <c r="F77" t="s">
-        <v>210</v>
+        <v>212</v>
       </c>
     </row>
     <row r="78" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A78" t="s">
-        <v>211</v>
+        <v>213</v>
       </c>
       <c r="B78" t="s">
         <v>205</v>
       </c>
       <c r="C78" t="s">
-        <v>209</v>
+        <v>214</v>
       </c>
       <c r="D78">
         <v>1</v>
@@ -2836,78 +2838,78 @@
         <v>112</v>
       </c>
       <c r="F78" t="s">
-        <v>212</v>
+        <v>215</v>
       </c>
     </row>
     <row r="79" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A79" t="s">
-        <v>213</v>
+        <v>216</v>
       </c>
       <c r="B79" t="s">
         <v>205</v>
       </c>
       <c r="C79" t="s">
-        <v>185</v>
+        <v>163</v>
       </c>
       <c r="D79">
         <v>1</v>
       </c>
       <c r="E79" t="s">
-        <v>112</v>
+        <v>43</v>
       </c>
       <c r="F79" t="s">
-        <v>215</v>
+        <v>217</v>
       </c>
     </row>
     <row r="80" spans="1:7" x14ac:dyDescent="0.25">
       <c r="A80" t="s">
-        <v>216</v>
+        <v>218</v>
       </c>
       <c r="B80" t="s">
         <v>205</v>
       </c>
       <c r="C80" t="s">
-        <v>214</v>
+        <v>219</v>
       </c>
       <c r="D80">
         <v>1</v>
       </c>
       <c r="E80" t="s">
-        <v>43</v>
+        <v>104</v>
       </c>
       <c r="F80" t="s">
-        <v>217</v>
+        <v>220</v>
       </c>
     </row>
     <row r="81" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A81" t="s">
-        <v>218</v>
+        <v>221</v>
       </c>
       <c r="B81" t="s">
         <v>205</v>
       </c>
       <c r="C81" t="s">
-        <v>163</v>
+        <v>222</v>
       </c>
       <c r="D81">
         <v>1</v>
       </c>
       <c r="E81" t="s">
-        <v>104</v>
+        <v>69</v>
       </c>
       <c r="F81" t="s">
-        <v>220</v>
+        <v>223</v>
       </c>
     </row>
     <row r="82" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A82" t="s">
-        <v>221</v>
+        <v>224</v>
       </c>
       <c r="B82" t="s">
         <v>205</v>
       </c>
       <c r="C82" t="s">
-        <v>219</v>
+        <v>185</v>
       </c>
       <c r="D82">
         <v>1</v>
@@ -2916,58 +2918,58 @@
         <v>69</v>
       </c>
       <c r="F82" t="s">
-        <v>223</v>
+        <v>225</v>
       </c>
     </row>
     <row r="83" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A83" t="s">
-        <v>224</v>
+        <v>226</v>
       </c>
       <c r="B83" t="s">
         <v>205</v>
       </c>
       <c r="C83" t="s">
-        <v>222</v>
+        <v>227</v>
       </c>
       <c r="D83">
         <v>1</v>
       </c>
       <c r="E83" t="s">
-        <v>69</v>
+        <v>59</v>
       </c>
       <c r="F83" t="s">
-        <v>225</v>
+        <v>228</v>
       </c>
     </row>
     <row r="84" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A84" t="s">
-        <v>226</v>
+        <v>229</v>
       </c>
       <c r="B84" t="s">
         <v>205</v>
       </c>
       <c r="C84" t="s">
-        <v>185</v>
+        <v>230</v>
       </c>
       <c r="D84">
         <v>1</v>
       </c>
       <c r="E84" t="s">
-        <v>59</v>
+        <v>43</v>
       </c>
       <c r="F84" t="s">
-        <v>227</v>
+        <v>231</v>
       </c>
     </row>
     <row r="85" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A85" t="s">
-        <v>228</v>
+        <v>232</v>
       </c>
       <c r="B85" t="s">
         <v>205</v>
       </c>
       <c r="C85" t="s">
-        <v>209</v>
+        <v>233</v>
       </c>
       <c r="D85">
         <v>1</v>
@@ -2976,95 +2978,95 @@
         <v>43</v>
       </c>
       <c r="F85" t="s">
-        <v>230</v>
+        <v>234</v>
       </c>
     </row>
     <row r="86" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A86" t="s">
-        <v>231</v>
+        <v>235</v>
       </c>
       <c r="B86" t="s">
-        <v>205</v>
+        <v>81</v>
       </c>
       <c r="C86" t="s">
-        <v>229</v>
+        <v>58</v>
       </c>
       <c r="D86">
         <v>1</v>
       </c>
       <c r="E86" t="s">
-        <v>43</v>
+        <v>109</v>
       </c>
       <c r="F86" t="s">
-        <v>233</v>
+        <v>236</v>
       </c>
     </row>
     <row r="87" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A87" t="s">
-        <v>234</v>
+        <v>237</v>
       </c>
       <c r="B87" t="s">
-        <v>81</v>
+        <v>139</v>
       </c>
       <c r="C87" t="s">
-        <v>232</v>
+        <v>42</v>
       </c>
       <c r="D87">
         <v>1</v>
       </c>
       <c r="E87" t="s">
-        <v>109</v>
+        <v>100</v>
       </c>
       <c r="F87" t="s">
-        <v>235</v>
+        <v>238</v>
       </c>
     </row>
     <row r="88" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A88" t="s">
-        <v>236</v>
+        <v>239</v>
       </c>
       <c r="B88" t="s">
-        <v>139</v>
+        <v>240</v>
       </c>
       <c r="C88" t="s">
-        <v>58</v>
+        <v>31</v>
       </c>
       <c r="D88">
         <v>1</v>
       </c>
       <c r="E88" t="s">
-        <v>100</v>
+        <v>241</v>
       </c>
       <c r="F88" t="s">
-        <v>237</v>
+        <v>242</v>
       </c>
     </row>
     <row r="89" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A89" t="s">
-        <v>238</v>
+        <v>243</v>
       </c>
       <c r="B89" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C89" t="s">
-        <v>42</v>
+        <v>31</v>
       </c>
       <c r="D89">
         <v>1</v>
       </c>
       <c r="E89" t="s">
-        <v>240</v>
+        <v>109</v>
       </c>
       <c r="F89" t="s">
-        <v>241</v>
+        <v>244</v>
       </c>
     </row>
     <row r="90" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A90" t="s">
-        <v>242</v>
+        <v>245</v>
       </c>
       <c r="B90" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C90" t="s">
         <v>31</v>
@@ -3073,18 +3075,18 @@
         <v>1</v>
       </c>
       <c r="E90" t="s">
-        <v>109</v>
+        <v>246</v>
       </c>
       <c r="F90" t="s">
-        <v>243</v>
+        <v>247</v>
       </c>
     </row>
     <row r="91" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A91" t="s">
-        <v>244</v>
+        <v>248</v>
       </c>
       <c r="B91" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C91" t="s">
         <v>31</v>
@@ -3093,18 +3095,18 @@
         <v>1</v>
       </c>
       <c r="E91" t="s">
-        <v>245</v>
+        <v>132</v>
       </c>
       <c r="F91" t="s">
-        <v>246</v>
+        <v>249</v>
       </c>
     </row>
     <row r="92" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A92" t="s">
-        <v>247</v>
+        <v>250</v>
       </c>
       <c r="B92" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C92" t="s">
         <v>31</v>
@@ -3113,18 +3115,18 @@
         <v>1</v>
       </c>
       <c r="E92" t="s">
-        <v>132</v>
+        <v>91</v>
       </c>
       <c r="F92" t="s">
-        <v>248</v>
+        <v>251</v>
       </c>
     </row>
     <row r="93" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A93" t="s">
-        <v>249</v>
+        <v>252</v>
       </c>
       <c r="B93" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C93" t="s">
         <v>31</v>
@@ -3133,18 +3135,18 @@
         <v>1</v>
       </c>
       <c r="E93" t="s">
-        <v>91</v>
+        <v>104</v>
       </c>
       <c r="F93" t="s">
-        <v>250</v>
+        <v>253</v>
       </c>
     </row>
     <row r="94" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A94" t="s">
-        <v>251</v>
+        <v>254</v>
       </c>
       <c r="B94" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C94" t="s">
         <v>31</v>
@@ -3153,18 +3155,18 @@
         <v>1</v>
       </c>
       <c r="E94" t="s">
-        <v>104</v>
+        <v>190</v>
       </c>
       <c r="F94" t="s">
-        <v>252</v>
+        <v>255</v>
       </c>
     </row>
     <row r="95" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A95" t="s">
-        <v>253</v>
+        <v>256</v>
       </c>
       <c r="B95" t="s">
-        <v>239</v>
+        <v>240</v>
       </c>
       <c r="C95" t="s">
         <v>31</v>
@@ -3173,175 +3175,175 @@
         <v>1</v>
       </c>
       <c r="E95" t="s">
-        <v>190</v>
+        <v>27</v>
       </c>
       <c r="F95" t="s">
-        <v>254</v>
+        <v>257</v>
       </c>
     </row>
     <row r="96" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A96" t="s">
-        <v>255</v>
+        <v>258</v>
       </c>
       <c r="B96" t="s">
-        <v>239</v>
+        <v>259</v>
       </c>
       <c r="C96" t="s">
-        <v>31</v>
+        <v>58</v>
       </c>
       <c r="D96">
         <v>1</v>
       </c>
       <c r="E96" t="s">
-        <v>27</v>
+        <v>109</v>
       </c>
       <c r="F96" t="s">
-        <v>256</v>
+        <v>260</v>
       </c>
     </row>
     <row r="97" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A97" t="s">
-        <v>257</v>
+        <v>261</v>
       </c>
       <c r="B97" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C97" t="s">
-        <v>31</v>
+        <v>42</v>
       </c>
       <c r="D97">
         <v>1</v>
       </c>
       <c r="E97" t="s">
-        <v>109</v>
+        <v>112</v>
       </c>
       <c r="F97" t="s">
-        <v>259</v>
+        <v>262</v>
       </c>
     </row>
     <row r="98" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A98" t="s">
-        <v>260</v>
+        <v>263</v>
       </c>
       <c r="B98" t="s">
-        <v>258</v>
+        <v>259</v>
       </c>
       <c r="C98" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D98">
         <v>1</v>
       </c>
       <c r="E98" t="s">
-        <v>112</v>
+        <v>38</v>
       </c>
       <c r="F98" t="s">
-        <v>261</v>
+        <v>264</v>
       </c>
     </row>
     <row r="99" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A99" t="s">
-        <v>262</v>
+        <v>265</v>
       </c>
       <c r="B99" t="s">
-        <v>258</v>
+        <v>266</v>
       </c>
       <c r="C99" t="s">
-        <v>42</v>
+        <v>163</v>
       </c>
       <c r="D99">
         <v>1</v>
       </c>
       <c r="E99" t="s">
-        <v>38</v>
+        <v>43</v>
       </c>
       <c r="F99" t="s">
-        <v>263</v>
+        <v>267</v>
       </c>
     </row>
     <row r="100" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A100" t="s">
-        <v>264</v>
+        <v>268</v>
       </c>
       <c r="B100" t="s">
-        <v>265</v>
+        <v>266</v>
       </c>
       <c r="C100" t="s">
-        <v>42</v>
+        <v>58</v>
       </c>
       <c r="D100">
         <v>1</v>
       </c>
       <c r="E100" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="F100" t="s">
-        <v>266</v>
+        <v>269</v>
       </c>
     </row>
     <row r="101" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A101" t="s">
-        <v>267</v>
+        <v>270</v>
       </c>
       <c r="B101" t="s">
-        <v>265</v>
+        <v>81</v>
       </c>
       <c r="C101" t="s">
-        <v>163</v>
+        <v>271</v>
       </c>
       <c r="D101">
         <v>1</v>
       </c>
       <c r="E101" t="s">
-        <v>38</v>
+        <v>272</v>
       </c>
       <c r="F101" t="s">
-        <v>268</v>
+        <v>273</v>
       </c>
     </row>
     <row r="102" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A102" t="s">
-        <v>269</v>
+        <v>274</v>
       </c>
       <c r="B102" t="s">
-        <v>81</v>
+        <v>30</v>
       </c>
       <c r="C102" t="s">
-        <v>58</v>
+        <v>42</v>
       </c>
       <c r="D102">
         <v>1</v>
       </c>
       <c r="E102" t="s">
-        <v>271</v>
+        <v>246</v>
       </c>
       <c r="F102" t="s">
-        <v>272</v>
+        <v>275</v>
       </c>
     </row>
     <row r="103" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A103" t="s">
-        <v>273</v>
+        <v>276</v>
       </c>
       <c r="B103" t="s">
         <v>30</v>
       </c>
       <c r="C103" t="s">
-        <v>270</v>
+        <v>42</v>
       </c>
       <c r="D103">
         <v>1</v>
       </c>
       <c r="E103" t="s">
-        <v>245</v>
+        <v>100</v>
       </c>
       <c r="F103" t="s">
-        <v>274</v>
+        <v>277</v>
       </c>
     </row>
     <row r="104" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A104" t="s">
-        <v>275</v>
+        <v>278</v>
       </c>
       <c r="B104" t="s">
         <v>30</v>
@@ -3353,15 +3355,15 @@
         <v>1</v>
       </c>
       <c r="E104" t="s">
-        <v>100</v>
+        <v>104</v>
       </c>
       <c r="F104" t="s">
-        <v>276</v>
+        <v>279</v>
       </c>
     </row>
     <row r="105" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A105" t="s">
-        <v>277</v>
+        <v>280</v>
       </c>
       <c r="B105" t="s">
         <v>30</v>
@@ -3376,112 +3378,87 @@
         <v>104</v>
       </c>
       <c r="F105" t="s">
-        <v>278</v>
+        <v>281</v>
       </c>
     </row>
     <row r="106" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A106" t="s">
-        <v>279</v>
+        <v>282</v>
       </c>
       <c r="B106" t="s">
-        <v>30</v>
+        <v>8</v>
       </c>
       <c r="C106" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D106">
         <v>1</v>
       </c>
       <c r="E106" t="s">
-        <v>104</v>
+        <v>109</v>
       </c>
       <c r="F106" t="s">
-        <v>280</v>
+        <v>284</v>
       </c>
     </row>
     <row r="107" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A107" t="s">
-        <v>281</v>
+        <v>285</v>
       </c>
       <c r="B107" t="s">
         <v>8</v>
       </c>
       <c r="C107" t="s">
-        <v>42</v>
+        <v>283</v>
       </c>
       <c r="D107">
         <v>1</v>
       </c>
       <c r="E107" t="s">
-        <v>109</v>
+        <v>72</v>
       </c>
       <c r="F107" t="s">
-        <v>283</v>
+        <v>286</v>
       </c>
     </row>
     <row r="108" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A108" t="s">
-        <v>284</v>
+        <v>287</v>
       </c>
       <c r="B108" t="s">
         <v>8</v>
       </c>
       <c r="C108" t="s">
-        <v>282</v>
+        <v>283</v>
       </c>
       <c r="D108">
         <v>1</v>
       </c>
       <c r="E108" t="s">
-        <v>72</v>
+        <v>69</v>
       </c>
       <c r="F108" t="s">
-        <v>285</v>
+        <v>288</v>
       </c>
     </row>
     <row r="109" spans="1:6" x14ac:dyDescent="0.25">
       <c r="A109" t="s">
-        <v>286</v>
+        <v>289</v>
       </c>
       <c r="B109" t="s">
-        <v>8</v>
+        <v>290</v>
       </c>
       <c r="C109" t="s">
-        <v>282</v>
+        <v>42</v>
       </c>
       <c r="D109">
         <v>1</v>
       </c>
       <c r="E109" t="s">
-        <v>69</v>
+        <v>291</v>
       </c>
       <c r="F109" t="s">
-        <v>287</v>
-      </c>
-    </row>
-    <row r="110" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="A110" t="s">
-        <v>288</v>
-      </c>
-      <c r="B110" t="s">
-        <v>289</v>
-      </c>
-      <c r="C110" t="s">
-        <v>282</v>
-      </c>
-      <c r="D110">
-        <v>1</v>
-      </c>
-      <c r="E110" t="s">
-        <v>290</v>
-      </c>
-      <c r="F110" t="s">
-        <v>291</v>
-      </c>
-    </row>
-    <row r="111" spans="1:6" x14ac:dyDescent="0.25">
-      <c r="C111" t="s">
-        <v>42</v>
+        <v>292</v>
       </c>
     </row>
   </sheetData>

--- a/informacoes_nfe.xlsx
+++ b/informacoes_nfe.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="\\Hdlogika\k\Backup_19_08_2021\Unidade_D\K\LEATICIA\Luiz Fernando\NFE_Automation\NFE_Logika\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6086497D-ABA1-457F-A7F8-F17381008E57}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9515D682-BE48-458F-ADB9-C677D79F3FFB}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="20730" windowHeight="11160" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1264,7 +1264,7 @@
   <dimension ref="A1:G109"/>
   <sheetViews>
     <sheetView tabSelected="1" topLeftCell="B1" workbookViewId="0">
-      <selection activeCell="G66" sqref="G66"/>
+      <selection activeCell="C3" sqref="C3"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
